--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">VII.- SENTENCIAS EJECUTADAS  (No incluir sentencias declarativas)</t>
@@ -32,289 +32,325 @@
     <t xml:space="preserve">- Sentencias de ejecución forzosa</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Convenios con ejecución de sentencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIII.- CLASIFICACION GENERAL DE JUICIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Total en este punto debe coincidir con el resultado de la suma de lo reportado en el mes inmediato anterior en este mismo punto, más los ingresos del presente mes, menos el Total de Juicios concluidos y archivados tambien del presente mes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De asuntos recibidos en :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 y Años anteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T O T A L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0999999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE JUICIOS CONCLUIDOS Y ARCHIVADOS EN EL MES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1999999999999993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE  ASUNTOS EN EXISTENCIA HASTA EL MES DEL INFORME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS EN INSTRUCCIÓN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar el Total reportado en el mes inmediato anterior en este rubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de Juicios concluidos y archivados en el mes que se reporta (8.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Controversia agraria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Jurisdicción voluntaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con Prevención</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS TURNADOS PARA ELABORACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de ingresos en el mes (suma de los puntos 1.1 y 1.2, de la Hoja 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROYECTO DE SENTENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS EN TRAMITE CON SENTENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por notificar</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">- Convenios con ejecución de sentencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIII.- CLASIFICACION GENERAL DE JUICIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Total en este punto debe coincidir con el resultado de la suma de lo reportado en el mes inmediato anterior en este mismo punto, más los ingresos del presente mes, menos el Total de Juicios concluidos y archivados tambien del presente mes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De asuntos recibidos en :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Años anteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T O T A L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0999999999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL DE JUICIOS CONCLUIDOS Y ARCHIVADOS EN EL MES</t>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriendo término para causar ejecutoria o para impugnación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con recurso de Revisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con amparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En ejecución</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS EN TRAMITE POR CUMPLIMIENTO DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJECUTORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Amparo</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1999999999999993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL DE  ASUNTOS EN EXISTENCIA HASTA EL MES DEL INFORME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS EN INSTRUCCIÓN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresar el Total reportado en el mes inmediato anterior en este rubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total de Juicios concluidos y archivados en el mes que se reporta (8.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Controversia agraria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Jurisdicción voluntaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con Prevención</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS EN TRAMITE CON SENTENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
+    <t xml:space="preserve">De Recurso de Revisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3000000000000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTOS "REACTIVADOS".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S  E  G  U  N  D  A     I  N  S  T  A  N  C  I  A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IX.- SENTENCIAS RECURRIDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0999999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECURSOS DE REVISION INTERPUESTOS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECIBIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMITIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"CUMPLIMENTADOS"</t>
   </si>
   <si>
     <t xml:space="preserve">116</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de ingresos en el mes (suma de los puntos 1.1 y 1.2, de la Hoja 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por notificar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriendo término para causar ejecutoria o para impugnación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con recurso de Revisión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con amparo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En ejecución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS EN TRAMITE POR CUMPLIMIENTO DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJECUTORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Amparo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Recurso de Revisión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3000000000000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUNTOS "REACTIVADOS".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S  E  G  U  N  D  A     I  N  S  T  A  N  C  I  A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IX.- SENTENCIAS RECURRIDAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0999999999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DE REVISION INTERPUESTOS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECIBIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMITIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"CUMPLIMENTADOS"</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Poner números de Rec.Rev.)</t>
   </si>
   <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 8</t>
@@ -853,7 +889,7 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -924,7 +960,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -945,7 +981,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U10"/>
       <c r="V10"/>
@@ -989,7 +1025,7 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -1013,27 +1049,27 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13"/>
       <c r="P13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1072,36 +1108,36 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M15"/>
       <c r="N15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1140,60 +1176,60 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="U17" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="V17" t="n">
+        <v>141</v>
+      </c>
+      <c r="W17" t="s">
         <v>32</v>
       </c>
-      <c r="T17" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" t="n">
-        <v>85</v>
-      </c>
-      <c r="W17" t="s">
-        <v>35</v>
-      </c>
       <c r="X17" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1225,81 +1261,81 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19"/>
       <c r="H19" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X19"/>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="1" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I20"/>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M20"/>
       <c r="N20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O20"/>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q20"/>
       <c r="R20"/>
@@ -1313,15 +1349,15 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="1" t="n">
@@ -1329,19 +1365,19 @@
       </c>
       <c r="I21"/>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M21"/>
       <c r="N21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O21"/>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q21"/>
       <c r="R21"/>
@@ -1355,15 +1391,15 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="1" t="n">
@@ -1371,25 +1407,25 @@
       </c>
       <c r="I22"/>
       <c r="J22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K22"/>
       <c r="L22" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="M22"/>
       <c r="N22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S22"/>
       <c r="T22"/>
@@ -1427,42 +1463,30 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
+      <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" t="n">
-        <v>12</v>
-      </c>
+      <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" t="s">
-        <v>8</v>
-      </c>
+      <c r="J24"/>
       <c r="K24"/>
-      <c r="L24" t="s">
-        <v>51</v>
-      </c>
+      <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" t="s">
-        <v>8</v>
-      </c>
+      <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" t="s">
-        <v>62</v>
-      </c>
+      <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -1470,36 +1494,34 @@
     </row>
     <row r="25">
       <c r="A25"/>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
+      <c r="B25"/>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I25"/>
       <c r="J25" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="K25"/>
       <c r="L25" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="M25"/>
       <c r="N25" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q25"/>
       <c r="R25"/>
@@ -1513,35 +1535,35 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I26"/>
       <c r="J26" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="K26"/>
       <c r="L26" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M26"/>
       <c r="N26" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q26"/>
       <c r="R26"/>
@@ -1555,35 +1577,35 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27"/>
       <c r="J27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M27"/>
       <c r="N27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Q27"/>
       <c r="R27"/>
@@ -1596,37 +1618,21 @@
     </row>
     <row r="28">
       <c r="A28"/>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28"/>
-      <c r="H28" s="1" t="n">
-        <v>7</v>
-      </c>
+      <c r="H28" s="1"/>
       <c r="I28"/>
-      <c r="J28" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J28" s="1"/>
       <c r="K28"/>
-      <c r="L28" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L28" s="1"/>
       <c r="M28"/>
-      <c r="N28" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="N28" s="1"/>
       <c r="O28"/>
-      <c r="P28" t="s">
-        <v>73</v>
-      </c>
+      <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -1638,37 +1644,21 @@
     </row>
     <row r="29">
       <c r="A29"/>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29"/>
-      <c r="H29" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="H29" s="1"/>
       <c r="I29"/>
-      <c r="J29" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J29" s="1"/>
       <c r="K29"/>
-      <c r="L29" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L29" s="1"/>
       <c r="M29"/>
-      <c r="N29" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="N29" s="1"/>
       <c r="O29"/>
-      <c r="P29" t="s">
-        <v>77</v>
-      </c>
+      <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -1680,21 +1670,37 @@
     </row>
     <row r="30">
       <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30"/>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
       <c r="G30"/>
-      <c r="H30"/>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
       <c r="I30"/>
-      <c r="J30"/>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
       <c r="K30"/>
-      <c r="L30"/>
+      <c r="L30" t="s">
+        <v>66</v>
+      </c>
       <c r="M30"/>
-      <c r="N30"/>
+      <c r="N30" t="s">
+        <v>67</v>
+      </c>
       <c r="O30"/>
-      <c r="P30"/>
+      <c r="P30" t="s">
+        <v>68</v>
+      </c>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -1707,15 +1713,15 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="n">
@@ -1723,19 +1729,19 @@
       </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O31"/>
       <c r="P31" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Q31"/>
       <c r="R31"/>
@@ -1748,23 +1754,37 @@
     </row>
     <row r="32">
       <c r="A32"/>
-      <c r="B32"/>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32"/>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
       <c r="G32"/>
-      <c r="H32"/>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
       <c r="I32"/>
-      <c r="J32"/>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
       <c r="K32"/>
-      <c r="L32"/>
+      <c r="L32" t="s">
+        <v>49</v>
+      </c>
       <c r="M32"/>
-      <c r="N32"/>
+      <c r="N32" t="s">
+        <v>73</v>
+      </c>
       <c r="O32"/>
-      <c r="P32"/>
+      <c r="P32" t="s">
+        <v>18</v>
+      </c>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -1777,35 +1797,35 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33"/>
       <c r="J33" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="K33"/>
       <c r="L33" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="M33"/>
       <c r="N33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O33"/>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -1819,35 +1839,35 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G34"/>
       <c r="H34" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34"/>
       <c r="J34" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="M34"/>
       <c r="N34" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="Q34"/>
       <c r="R34"/>
@@ -1860,21 +1880,37 @@
     </row>
     <row r="35">
       <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35"/>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
       <c r="G35"/>
-      <c r="H35"/>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
       <c r="I35"/>
-      <c r="J35"/>
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
       <c r="K35"/>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>77</v>
+      </c>
       <c r="M35"/>
-      <c r="N35"/>
+      <c r="N35" t="s">
+        <v>49</v>
+      </c>
       <c r="O35"/>
-      <c r="P35"/>
+      <c r="P35" t="s">
+        <v>87</v>
+      </c>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -1912,21 +1948,37 @@
     </row>
     <row r="37">
       <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
       <c r="G37"/>
-      <c r="H37"/>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
       <c r="I37"/>
-      <c r="J37"/>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
       <c r="K37"/>
-      <c r="L37"/>
+      <c r="L37" t="s">
+        <v>49</v>
+      </c>
       <c r="M37"/>
-      <c r="N37"/>
+      <c r="N37" t="s">
+        <v>6</v>
+      </c>
       <c r="O37"/>
-      <c r="P37"/>
+      <c r="P37" t="s">
+        <v>91</v>
+      </c>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -1937,36 +1989,24 @@
       <c r="X37"/>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38"/>
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" s="1"/>
       <c r="G38"/>
-      <c r="H38" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38"/>
-      <c r="J38" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38"/>
-      <c r="L38" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L38" s="1"/>
       <c r="M38"/>
-      <c r="N38" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="N38" s="1"/>
       <c r="O38"/>
-      <c r="P38" t="s">
-        <v>8</v>
-      </c>
+      <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -1978,21 +2018,37 @@
     </row>
     <row r="39">
       <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39"/>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
       <c r="G39"/>
-      <c r="H39"/>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
       <c r="I39"/>
-      <c r="J39"/>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
       <c r="K39"/>
-      <c r="L39"/>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
       <c r="M39"/>
-      <c r="N39"/>
+      <c r="N39" t="s">
+        <v>6</v>
+      </c>
       <c r="O39"/>
-      <c r="P39"/>
+      <c r="P39" t="s">
+        <v>94</v>
+      </c>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -2004,21 +2060,37 @@
     </row>
     <row r="40">
       <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40"/>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
       <c r="G40"/>
-      <c r="H40"/>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
       <c r="I40"/>
-      <c r="J40"/>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
       <c r="K40"/>
-      <c r="L40"/>
+      <c r="L40" t="s">
+        <v>49</v>
+      </c>
       <c r="M40"/>
-      <c r="N40"/>
+      <c r="N40" t="s">
+        <v>6</v>
+      </c>
       <c r="O40"/>
-      <c r="P40"/>
+      <c r="P40" t="s">
+        <v>18</v>
+      </c>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -2055,9 +2127,7 @@
       <c r="X41"/>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
+      <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -2109,22 +2179,38 @@
       <c r="X43"/>
     </row>
     <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44"/>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
       <c r="G44"/>
-      <c r="H44"/>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
       <c r="I44"/>
-      <c r="J44"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
       <c r="K44"/>
-      <c r="L44"/>
+      <c r="L44" t="s">
+        <v>76</v>
+      </c>
       <c r="M44"/>
-      <c r="N44"/>
+      <c r="N44" t="s">
+        <v>6</v>
+      </c>
       <c r="O44"/>
-      <c r="P44"/>
+      <c r="P44" t="s">
+        <v>91</v>
+      </c>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -2135,9 +2221,7 @@
       <c r="X44"/>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
+      <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -2189,12 +2273,8 @@
       <c r="X46"/>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
+      <c r="A47"/>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2219,7 +2299,9 @@
       <c r="X47"/>
     </row>
     <row r="48">
-      <c r="A48"/>
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -2246,17 +2328,11 @@
     </row>
     <row r="49">
       <c r="A49"/>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
+      <c r="B49"/>
+      <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -2303,18 +2379,14 @@
       <c r="X50"/>
     </row>
     <row r="51">
-      <c r="A51"/>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
@@ -2361,18 +2433,16 @@
       <c r="X52"/>
     </row>
     <row r="53">
-      <c r="A53"/>
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
       <c r="B53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
@@ -2395,9 +2465,7 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54"/>
-      <c r="C54" t="s">
-        <v>99</v>
-      </c>
+      <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
@@ -2422,11 +2490,17 @@
     </row>
     <row r="55">
       <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55"/>
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
@@ -2474,23 +2548,23 @@
     </row>
     <row r="57">
       <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
       <c r="D57"/>
-      <c r="E57" t="s">
-        <v>100</v>
-      </c>
+      <c r="E57"/>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
-      <c r="L57" t="s">
-        <v>101</v>
-      </c>
+      <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
@@ -2504,6 +2578,176 @@
       <c r="W57"/>
       <c r="X57"/>
     </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63" t="s">
+        <v>113</v>
+      </c>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">VII.- SENTENCIAS EJECUTADAS  (No incluir sentencias declarativas)</t>
@@ -32,79 +32,79 @@
     <t xml:space="preserve">- Sentencias de ejecución forzosa</t>
   </si>
   <si>
+    <t xml:space="preserve">H08_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Convenios con ejecución de sentencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIII.- CLASIFICACION GENERAL DE JUICIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Total en este punto debe coincidir con el resultado de la suma de lo reportado en el mes inmediato anterior en este mismo punto, más los ingresos del presente mes, menos el Total de Juicios concluidos y archivados tambien del presente mes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De asuntos recibidos en :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 y Años anteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T O T A L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0999999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE JUICIOS CONCLUIDOS Y ARCHIVADOS EN EL MES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_62</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">- Convenios con ejecución de sentencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIII.- CLASIFICACION GENERAL DE JUICIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Total en este punto debe coincidir con el resultado de la suma de lo reportado en el mes inmediato anterior en este mismo punto, más los ingresos del presente mes, menos el Total de Juicios concluidos y archivados tambien del presente mes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De asuntos recibidos en :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 y Años anteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T O T A L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0999999999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL DE JUICIOS CONCLUIDOS Y ARCHIVADOS EN EL MES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.1999999999999993</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL DE  ASUNTOS EN EXISTENCIA HASTA EL MES DEL INFORME</t>
   </si>
   <si>
-    <t xml:space="preserve">158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1126</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;--</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">1072</t>
+    <t xml:space="preserve">H08_76</t>
   </si>
   <si>
     <t xml:space="preserve">+</t>
@@ -119,21 +119,6 @@
     <t xml:space="preserve">ASUNTOS EN INSTRUCCIÓN.</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">812</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingresar el Total reportado en el mes inmediato anterior en este rubro</t>
   </si>
   <si>
@@ -146,13 +131,19 @@
     <t xml:space="preserve">De Controversia agraria</t>
   </si>
   <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">730</t>
+    <t xml:space="preserve">H08_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_63</t>
   </si>
   <si>
     <t xml:space="preserve">b)</t>
@@ -161,13 +152,19 @@
     <t xml:space="preserve">De Jurisdicción voluntaria</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
+    <t xml:space="preserve">H08_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_64</t>
   </si>
   <si>
     <t xml:space="preserve">c)</t>
@@ -176,7 +173,22 @@
     <t xml:space="preserve">Con Prevención</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
+    <t xml:space="preserve">H08_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H01_14</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.2</t>
@@ -191,16 +203,34 @@
     <t xml:space="preserve">PROYECTO DE SENTENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
+    <t xml:space="preserve">H08_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_67</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.3</t>
@@ -209,46 +239,58 @@
     <t xml:space="preserve">ASUNTOS EN TRAMITE CON SENTENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
-  </si>
-  <si>
     <t xml:space="preserve">Por notificar</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
+    <t xml:space="preserve">H08_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_68</t>
   </si>
   <si>
     <t xml:space="preserve">Corriendo término para causar ejecutoria o para impugnación</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">H08_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_69</t>
   </si>
   <si>
     <t xml:space="preserve">Con recurso de Revisión</t>
   </si>
   <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
+    <t xml:space="preserve">H08_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_70</t>
   </si>
   <si>
     <t xml:space="preserve">d)</t>
@@ -257,13 +299,19 @@
     <t xml:space="preserve">Con amparo</t>
   </si>
   <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
+    <t xml:space="preserve">H08_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_71</t>
   </si>
   <si>
     <t xml:space="preserve">e)</t>
@@ -272,10 +320,19 @@
     <t xml:space="preserve">En ejecución</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
+    <t xml:space="preserve">H08_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_72</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.4</t>
@@ -284,30 +341,66 @@
     <t xml:space="preserve">ASUNTOS EN TRAMITE POR CUMPLIMIENTO DE</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
     <t xml:space="preserve">EJECUTORIA</t>
   </si>
   <si>
     <t xml:space="preserve">De Amparo</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">H08_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_73</t>
   </si>
   <si>
     <t xml:space="preserve">De Recurso de Revisión</t>
   </si>
   <si>
+    <t xml:space="preserve">H08_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_74</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.3000000000000007</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS "REACTIVADOS".</t>
   </si>
   <si>
+    <t xml:space="preserve">H08_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H08_75</t>
+  </si>
+  <si>
     <t xml:space="preserve">S  E  G  U  N  D  A     I  N  S  T  A  N  C  I  A</t>
   </si>
   <si>
@@ -326,7 +419,7 @@
     <t xml:space="preserve">RECIBIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">172</t>
+    <t xml:space="preserve">H08_17</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.2</t>
@@ -335,7 +428,7 @@
     <t xml:space="preserve">REMITIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">170</t>
+    <t xml:space="preserve">H08_18</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.3</t>
@@ -344,13 +437,13 @@
     <t xml:space="preserve">"CUMPLIMENTADOS"</t>
   </si>
   <si>
-    <t xml:space="preserve">116</t>
+    <t xml:space="preserve">H08_19</t>
   </si>
   <si>
     <t xml:space="preserve">(Poner números de Rec.Rev.)</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 8</t>
@@ -889,7 +982,7 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -960,7 +1053,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -981,7 +1074,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U10"/>
       <c r="V10"/>
@@ -1025,7 +1118,7 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -1049,27 +1142,27 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13"/>
-      <c r="H13" t="n">
-        <v>2021</v>
+      <c r="H13" t="s">
+        <v>13</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O13"/>
       <c r="P13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1108,36 +1201,36 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G15"/>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15"/>
       <c r="N15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1176,24 +1269,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G17"/>
-      <c r="H17" t="n">
-        <v>50</v>
+      <c r="H17" t="s">
+        <v>25</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
@@ -1201,35 +1294,33 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="s">
         <v>28</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="R17"/>
       <c r="S17" t="s">
         <v>29</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="U17" t="s">
         <v>31</v>
       </c>
       <c r="V17" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="W17" t="s">
         <v>32</v>
       </c>
       <c r="X17" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1269,73 +1360,73 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G19"/>
-      <c r="H19" t="n">
-        <v>20</v>
+      <c r="H19" t="s">
+        <v>25</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="X19"/>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G20"/>
-      <c r="H20" s="1" t="n">
-        <v>20</v>
+      <c r="H20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I20"/>
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M20"/>
       <c r="N20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O20"/>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="Q20"/>
       <c r="R20"/>
@@ -1349,23 +1440,23 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="1" t="n">
-        <v>0</v>
+      <c r="H21" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I21"/>
       <c r="J21" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="1" t="s">
@@ -1377,7 +1468,7 @@
       </c>
       <c r="O21"/>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="Q21"/>
       <c r="R21"/>
@@ -1391,41 +1482,41 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G22"/>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I22"/>
       <c r="J22" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="K22"/>
       <c r="L22" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="M22"/>
       <c r="N22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="s">
         <v>28</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S22"/>
       <c r="T22"/>
@@ -1463,10 +1554,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1486,7 +1577,7 @@
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -1496,32 +1587,32 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="1" t="s">
-        <v>59</v>
+      <c r="F25" t="s">
+        <v>25</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="1" t="n">
-        <v>9</v>
+      <c r="H25" t="s">
+        <v>25</v>
       </c>
       <c r="I25"/>
-      <c r="J25" s="1" t="s">
-        <v>60</v>
+      <c r="J25" t="s">
+        <v>25</v>
       </c>
       <c r="K25"/>
-      <c r="L25" s="1" t="s">
-        <v>61</v>
+      <c r="L25" t="s">
+        <v>25</v>
       </c>
       <c r="M25"/>
-      <c r="N25" s="1" t="s">
-        <v>35</v>
+      <c r="N25" t="s">
+        <v>25</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="Q25"/>
       <c r="R25"/>
@@ -1535,35 +1626,35 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G26"/>
-      <c r="H26" s="1" t="n">
-        <v>9</v>
+      <c r="H26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I26"/>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K26"/>
       <c r="L26" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M26"/>
       <c r="N26" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="Q26"/>
       <c r="R26"/>
@@ -1577,35 +1668,35 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="1" t="n">
-        <v>0</v>
+      <c r="H27" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="I27"/>
       <c r="J27" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="M27"/>
       <c r="N27" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q27"/>
       <c r="R27"/>
@@ -1622,15 +1713,15 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="1"/>
+      <c r="F28"/>
       <c r="G28"/>
-      <c r="H28" s="1"/>
+      <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="1"/>
+      <c r="J28"/>
       <c r="K28"/>
-      <c r="L28" s="1"/>
+      <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" s="1"/>
+      <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
@@ -1648,15 +1739,15 @@
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="1"/>
+      <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" s="1"/>
+      <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="1"/>
+      <c r="J29"/>
       <c r="K29"/>
-      <c r="L29" s="1"/>
+      <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="1"/>
+      <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
@@ -1671,35 +1762,35 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G30"/>
-      <c r="H30" t="n">
-        <v>19</v>
+      <c r="H30" t="s">
+        <v>25</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="Q30"/>
       <c r="R30"/>
@@ -1713,35 +1804,35 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" t="s">
-        <v>6</v>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G31"/>
-      <c r="H31" t="n">
-        <v>3</v>
+      <c r="H31" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I31"/>
-      <c r="J31" t="s">
-        <v>70</v>
+      <c r="J31" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="K31"/>
-      <c r="L31" t="s">
-        <v>18</v>
+      <c r="L31" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="M31"/>
-      <c r="N31" t="s">
-        <v>6</v>
+      <c r="N31" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="O31"/>
       <c r="P31" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="Q31"/>
       <c r="R31"/>
@@ -1755,35 +1846,35 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" t="s">
-        <v>6</v>
+      <c r="F32" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G32"/>
-      <c r="H32" t="n">
-        <v>0</v>
+      <c r="H32" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I32"/>
-      <c r="J32" t="s">
-        <v>6</v>
+      <c r="J32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K32"/>
-      <c r="L32" t="s">
-        <v>49</v>
+      <c r="L32" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="M32"/>
-      <c r="N32" t="s">
-        <v>73</v>
+      <c r="N32" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q32"/>
       <c r="R32"/>
@@ -1797,35 +1888,35 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G33"/>
-      <c r="H33" s="1" t="n">
-        <v>1</v>
+      <c r="H33" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="I33"/>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K33"/>
       <c r="L33" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M33"/>
       <c r="N33" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="O33"/>
       <c r="P33" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -1839,35 +1930,35 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G34"/>
-      <c r="H34" s="1" t="n">
-        <v>10</v>
+      <c r="H34" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="I34"/>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M34"/>
       <c r="N34" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="Q34"/>
       <c r="R34"/>
@@ -1881,35 +1972,35 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" t="s">
-        <v>86</v>
+      <c r="F35" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G35"/>
-      <c r="H35" t="n">
-        <v>5</v>
+      <c r="H35" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="I35"/>
-      <c r="J35" t="s">
-        <v>76</v>
+      <c r="J35" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="K35"/>
-      <c r="L35" t="s">
-        <v>77</v>
+      <c r="L35" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M35"/>
-      <c r="N35" t="s">
-        <v>49</v>
+      <c r="N35" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="Q35"/>
       <c r="R35"/>
@@ -1949,35 +2040,35 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="G37"/>
-      <c r="H37" t="n">
-        <v>2</v>
+      <c r="H37" t="s">
+        <v>25</v>
       </c>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K37"/>
       <c r="L37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O37"/>
       <c r="P37" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q37"/>
       <c r="R37"/>
@@ -1992,19 +2083,19 @@
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="1"/>
+      <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" s="1"/>
+      <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="1"/>
+      <c r="J38"/>
       <c r="K38"/>
-      <c r="L38" s="1"/>
+      <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="1"/>
+      <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
@@ -2019,35 +2110,35 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" t="s">
-        <v>70</v>
+      <c r="F39" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G39"/>
-      <c r="H39" t="n">
-        <v>2</v>
+      <c r="H39" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="I39"/>
-      <c r="J39" t="s">
-        <v>6</v>
+      <c r="J39" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="K39"/>
-      <c r="L39" t="s">
-        <v>6</v>
+      <c r="L39" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="M39"/>
-      <c r="N39" t="s">
-        <v>6</v>
+      <c r="N39" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="Q39"/>
       <c r="R39"/>
@@ -2061,35 +2152,35 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40" t="s">
-        <v>73</v>
+      <c r="F40" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G40"/>
-      <c r="H40" t="n">
-        <v>0</v>
+      <c r="H40" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="I40"/>
-      <c r="J40" t="s">
-        <v>6</v>
+      <c r="J40" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="K40"/>
-      <c r="L40" t="s">
-        <v>49</v>
+      <c r="L40" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="M40"/>
-      <c r="N40" t="s">
-        <v>6</v>
+      <c r="N40" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q40"/>
       <c r="R40"/>
@@ -2180,36 +2271,36 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44" t="s">
-        <v>94</v>
+      <c r="F44" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G44"/>
-      <c r="H44" t="n">
-        <v>1</v>
+      <c r="H44" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I44"/>
-      <c r="J44" t="s">
-        <v>73</v>
+      <c r="J44" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="K44"/>
-      <c r="L44" t="s">
-        <v>76</v>
+      <c r="L44" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="M44"/>
-      <c r="N44" t="s">
-        <v>6</v>
+      <c r="N44" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="O44"/>
       <c r="P44" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q44"/>
       <c r="R44"/>
@@ -2300,7 +2391,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -2332,7 +2423,7 @@
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="1"/>
+      <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -2380,13 +2471,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="1"/>
+      <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
@@ -2434,15 +2525,15 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="1"/>
+      <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
@@ -2491,15 +2582,15 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" t="s">
-        <v>104</v>
+      <c r="F55" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -2549,15 +2640,15 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" t="s">
-        <v>107</v>
+      <c r="F57" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -2607,15 +2698,15 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" t="s">
-        <v>110</v>
+      <c r="F59" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -2640,7 +2731,7 @@
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2722,10 +2813,10 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -2733,7 +2824,7 @@
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="M63"/>
       <c r="N63"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">VII.- SENTENCIAS EJECUTADAS  (No incluir sentencias declarativas)</t>
@@ -32,15 +32,12 @@
     <t xml:space="preserve">- Sentencias de ejecución forzosa</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_01</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">- Convenios con ejecución de sentencia</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIII.- CLASIFICACION GENERAL DE JUICIOS</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t xml:space="preserve">2020 y Años anteriores</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022</t>
   </si>
   <si>
@@ -74,22 +68,13 @@
     <t xml:space="preserve">TOTAL DE JUICIOS CONCLUIDOS Y ARCHIVADOS EN EL MES</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
   </si>
   <si>
     <t xml:space="preserve">8.1999999999999993</t>
@@ -98,13 +83,28 @@
     <t xml:space="preserve">TOTAL DE  ASUNTOS EN EXISTENCIA HASTA EL MES DEL INFORME</t>
   </si>
   <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1126</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;--</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_76</t>
+    <t xml:space="preserve">1072</t>
   </si>
   <si>
     <t xml:space="preserve">+</t>
@@ -119,6 +119,21 @@
     <t xml:space="preserve">ASUNTOS EN INSTRUCCIÓN.</t>
   </si>
   <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">812</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingresar el Total reportado en el mes inmediato anterior en este rubro</t>
   </si>
   <si>
@@ -131,19 +146,13 @@
     <t xml:space="preserve">De Controversia agraria</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_63</t>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">730</t>
   </si>
   <si>
     <t xml:space="preserve">b)</t>
@@ -152,19 +161,13 @@
     <t xml:space="preserve">De Jurisdicción voluntaria</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_64</t>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
   </si>
   <si>
     <t xml:space="preserve">c)</t>
@@ -173,22 +176,7 @@
     <t xml:space="preserve">Con Prevención</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01_14</t>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.2</t>
@@ -203,34 +191,16 @@
     <t xml:space="preserve">PROYECTO DE SENTENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_67</t>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.3</t>
@@ -239,58 +209,46 @@
     <t xml:space="preserve">ASUNTOS EN TRAMITE CON SENTENCIA</t>
   </si>
   <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
     <t xml:space="preserve">Por notificar</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_68</t>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">Corriendo término para causar ejecutoria o para impugnación</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_69</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Con recurso de Revisión</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_70</t>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
   </si>
   <si>
     <t xml:space="preserve">d)</t>
@@ -299,19 +257,13 @@
     <t xml:space="preserve">Con amparo</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_71</t>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
   </si>
   <si>
     <t xml:space="preserve">e)</t>
@@ -320,19 +272,10 @@
     <t xml:space="preserve">En ejecución</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_72</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.4</t>
@@ -341,66 +284,30 @@
     <t xml:space="preserve">ASUNTOS EN TRAMITE POR CUMPLIMIENTO DE</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">EJECUTORIA</t>
   </si>
   <si>
     <t xml:space="preserve">De Amparo</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_73</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">De Recurso de Revisión</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_74</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.3000000000000007</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS "REACTIVADOS".</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08_75</t>
-  </si>
-  <si>
     <t xml:space="preserve">S  E  G  U  N  D  A     I  N  S  T  A  N  C  I  A</t>
   </si>
   <si>
@@ -419,7 +326,7 @@
     <t xml:space="preserve">RECIBIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_17</t>
+    <t xml:space="preserve">172</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.2</t>
@@ -428,7 +335,7 @@
     <t xml:space="preserve">REMITIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_18</t>
+    <t xml:space="preserve">170</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.3</t>
@@ -437,13 +344,13 @@
     <t xml:space="preserve">"CUMPLIMENTADOS"</t>
   </si>
   <si>
-    <t xml:space="preserve">H08_19</t>
+    <t xml:space="preserve">116</t>
   </si>
   <si>
     <t xml:space="preserve">(Poner números de Rec.Rev.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 8</t>
@@ -982,7 +889,7 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1053,7 +960,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -1074,7 +981,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U10"/>
       <c r="V10"/>
@@ -1118,7 +1025,7 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -1142,27 +1049,27 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13"/>
-      <c r="H13" t="s">
-        <v>13</v>
+      <c r="H13" t="n">
+        <v>2021</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O13"/>
       <c r="P13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1201,36 +1108,36 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G15"/>
-      <c r="H15" s="1" t="s">
-        <v>21</v>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M15"/>
       <c r="N15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1269,24 +1176,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17"/>
-      <c r="H17" t="s">
-        <v>25</v>
+      <c r="H17" t="n">
+        <v>50</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
@@ -1294,16 +1201,18 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
         <v>28</v>
       </c>
-      <c r="R17"/>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
       <c r="S17" t="s">
         <v>29</v>
       </c>
@@ -1314,13 +1223,13 @@
         <v>31</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="W17" t="s">
         <v>32</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1360,73 +1269,73 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G19"/>
-      <c r="H19" t="s">
-        <v>25</v>
+      <c r="H19" t="n">
+        <v>20</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="X19"/>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G20"/>
-      <c r="H20" s="1" t="s">
-        <v>40</v>
+      <c r="H20" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="I20"/>
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M20"/>
       <c r="N20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O20"/>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Q20"/>
       <c r="R20"/>
@@ -1440,23 +1349,23 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="1" t="s">
-        <v>47</v>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="I21"/>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="1" t="s">
@@ -1468,7 +1377,7 @@
       </c>
       <c r="O21"/>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q21"/>
       <c r="R21"/>
@@ -1482,41 +1391,41 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G22"/>
-      <c r="H22" s="1" t="s">
-        <v>54</v>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="I22"/>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="K22"/>
       <c r="L22" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="M22"/>
       <c r="N22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
         <v>28</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S22"/>
       <c r="T22"/>
@@ -1554,10 +1463,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1577,7 +1486,7 @@
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -1587,32 +1496,32 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G25"/>
-      <c r="H25" t="s">
-        <v>25</v>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="Q25"/>
       <c r="R25"/>
@@ -1626,35 +1535,35 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G26"/>
-      <c r="H26" s="1" t="s">
-        <v>64</v>
+      <c r="H26" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="I26"/>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K26"/>
       <c r="L26" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M26"/>
       <c r="N26" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="Q26"/>
       <c r="R26"/>
@@ -1668,35 +1577,35 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="1" t="s">
-        <v>69</v>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="I27"/>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="M27"/>
       <c r="N27" s="1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Q27"/>
       <c r="R27"/>
@@ -1762,35 +1671,35 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G30"/>
-      <c r="H30" t="s">
-        <v>25</v>
+      <c r="H30" t="n">
+        <v>19</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="Q30"/>
       <c r="R30"/>
@@ -1804,35 +1713,35 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" s="1" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="G31"/>
-      <c r="H31" s="1" t="s">
-        <v>77</v>
+      <c r="H31" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I31"/>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K31"/>
       <c r="L31" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M31"/>
       <c r="N31" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="O31"/>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="Q31"/>
       <c r="R31"/>
@@ -1846,35 +1755,35 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="G32"/>
-      <c r="H32" s="1" t="s">
-        <v>83</v>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="I32"/>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="K32"/>
       <c r="L32" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M32"/>
       <c r="N32" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q32"/>
       <c r="R32"/>
@@ -1888,35 +1797,35 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G33"/>
-      <c r="H33" s="1" t="s">
-        <v>89</v>
+      <c r="H33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I33"/>
       <c r="J33" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K33"/>
       <c r="L33" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="M33"/>
       <c r="N33" s="1" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="O33"/>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -1930,35 +1839,35 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G34"/>
-      <c r="H34" s="1" t="s">
-        <v>96</v>
+      <c r="H34" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="I34"/>
       <c r="J34" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M34"/>
       <c r="N34" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="Q34"/>
       <c r="R34"/>
@@ -1972,35 +1881,35 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G35"/>
-      <c r="H35" s="1" t="s">
-        <v>103</v>
+      <c r="H35" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="I35"/>
       <c r="J35" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="K35"/>
       <c r="L35" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="M35"/>
       <c r="N35" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="Q35"/>
       <c r="R35"/>
@@ -2040,35 +1949,35 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G37"/>
-      <c r="H37" t="s">
-        <v>25</v>
+      <c r="H37" t="n">
+        <v>2</v>
       </c>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K37"/>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="O37"/>
       <c r="P37" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="Q37"/>
       <c r="R37"/>
@@ -2083,7 +1992,7 @@
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -2110,35 +2019,35 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" s="1" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="G39"/>
-      <c r="H39" s="1" t="s">
-        <v>112</v>
+      <c r="H39" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="I39"/>
       <c r="J39" s="1" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="K39"/>
       <c r="L39" s="1" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="M39"/>
       <c r="N39" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="Q39"/>
       <c r="R39"/>
@@ -2152,35 +2061,35 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G40"/>
-      <c r="H40" s="1" t="s">
-        <v>118</v>
+      <c r="H40" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="I40"/>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="K40"/>
       <c r="L40" s="1" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="M40"/>
       <c r="N40" s="1" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="O40"/>
       <c r="P40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q40"/>
       <c r="R40"/>
@@ -2271,36 +2180,36 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G44"/>
-      <c r="H44" s="1" t="s">
-        <v>125</v>
+      <c r="H44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I44"/>
       <c r="J44" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K44"/>
       <c r="L44" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="M44"/>
       <c r="N44" s="1" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="O44"/>
       <c r="P44" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="Q44"/>
       <c r="R44"/>
@@ -2391,7 +2300,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -2471,7 +2380,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -2525,10 +2434,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -2582,15 +2491,15 @@
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -2640,15 +2549,15 @@
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -2698,15 +2607,15 @@
     <row r="59">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -2731,7 +2640,7 @@
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2813,10 +2722,10 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -2824,7 +2733,7 @@
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="M63"/>
       <c r="N63"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja8.xlsx
@@ -350,7 +350,7 @@
     <t xml:space="preserve">(Poner números de Rec.Rev.)</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 8</t>
